--- a/Data/claudia_ma2.xlsx
+++ b/Data/claudia_ma2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5868086476d0c9e0/Documents/Projeto_Claudia/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{37452EFD-026C-46CC-818E-162B414CEFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D22FDE1-50DF-4E26-85CA-2EEC924F908D}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{37452EFD-026C-46CC-818E-162B414CEFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F86B19A3-CADE-46B9-B374-B1DD9D8EA5FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="609" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -600,14 +600,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2258,7 +2258,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC19F68C-F04A-436F-812F-B7022EEC986E}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC19F68C-F04A-436F-812F-B7022EEC986E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -2664,15 +2664,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B4">
@@ -2686,100 +2686,100 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
         <v>16</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>8</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>4</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>6</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>11</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>18</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>11</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>19</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>55</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>49</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>104</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
   <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,7 +2851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>280</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>120</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>18782</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>60</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>15</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>286</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>466</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>106</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>27</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>87</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>205</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>55</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>498</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>38</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>50</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>134</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>40</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>24</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>400</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>324</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>185</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>60</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>200</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>100</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>19</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>41</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>500</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>96</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>40</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>422</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>190</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>270</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>300</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>200</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>200</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>50</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>150</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>100</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>288</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>45</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>200</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>27</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>86</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>42</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>102</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>240</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>100</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>18</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>35</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>200</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>426</v>
       </c>
@@ -7262,9 +7262,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M105" xr:uid="{5088B3B2-F2F0-4DED-9450-E73F36DA2B7D}">
-    <filterColumn colId="11">
+    <filterColumn colId="10">
       <filters>
-        <filter val="1"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7334,7 +7334,7 @@
       <c r="D2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="27">
         <v>1</v>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
@@ -7366,7 +7366,7 @@
       <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -7381,7 +7381,7 @@
       <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -7394,7 +7394,7 @@
       <c r="D6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="3"/>
@@ -7411,7 +7411,7 @@
       <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="27"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -7426,7 +7426,7 @@
       <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
@@ -7439,7 +7439,7 @@
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -7477,15 +7477,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083C77CA76B7D0446BB899F3A656AEE52" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="be801ebef6c11357ee5a647eb1a76931">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1afc395e-5c08-4774-b7de-04879a34a3b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a79a2c10345719b81b6432715777ce7" ns3:_="">
     <xsd:import namespace="1afc395e-5c08-4774-b7de-04879a34a3b6"/>
@@ -7657,6 +7648,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2B5A8-833E-431D-BC89-5B63E0463437}">
   <ds:schemaRefs>
@@ -7674,14 +7674,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCECE4B-EA15-452C-A1B3-F8DA64C37311}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7697,4 +7689,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3265FE-48C6-4750-96A6-6D78F7D219C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>